--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1057.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1057.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>4.019819898641701</v>
+        <v>1.134287357330322</v>
       </c>
       <c r="B1">
-        <v>2.384105775432929</v>
+        <v>-1</v>
       </c>
       <c r="C1">
-        <v>1.71870255702225</v>
+        <v>-1</v>
       </c>
       <c r="D1">
-        <v>1.579395729437617</v>
+        <v>-1</v>
       </c>
       <c r="E1">
-        <v>1.504041620608932</v>
+        <v>1.061272025108337</v>
       </c>
     </row>
   </sheetData>
